--- a/Laba2/Table.xlsx
+++ b/Laba2/Table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>1)Автор женщина?</t>
   </si>
@@ -175,6 +175,66 @@
   </si>
   <si>
     <t>14)Книга написана на Русском?</t>
+  </si>
+  <si>
+    <t>Норвежский лес</t>
+  </si>
+  <si>
+    <t>Похороните меня за плинтусом</t>
+  </si>
+  <si>
+    <t>Обломов</t>
+  </si>
+  <si>
+    <t>Аэропорт</t>
+  </si>
+  <si>
+    <t>Волхв</t>
+  </si>
+  <si>
+    <t>Виноваты звёзды</t>
+  </si>
+  <si>
+    <t>Три мушкетёра</t>
+  </si>
+  <si>
+    <t>Лолита</t>
+  </si>
+  <si>
+    <t>Трое в лодке,не считая собаки</t>
+  </si>
+  <si>
+    <t>Метро 2033</t>
+  </si>
+  <si>
+    <t>2)Главный герой книги умирает?</t>
+  </si>
+  <si>
+    <t>3)У главного героя есть друзья?</t>
+  </si>
+  <si>
+    <t>4)Автор книги жив?</t>
+  </si>
+  <si>
+    <t>5)У автора есть приемник?</t>
+  </si>
+  <si>
+    <t>7)Книга в красном переплёте?</t>
+  </si>
+  <si>
+    <t>8)В книге есть библейские отсылки?</t>
+  </si>
+  <si>
+    <t>9)Книга по вселенной Star Wars?</t>
+  </si>
+  <si>
+    <t>10)У автора есть супруг?</t>
+  </si>
+  <si>
+    <t>1)Листы книга из  жёлтой бумаги?</t>
+  </si>
+  <si>
+    <t>6)Какая стоимость рекламной кампании?</t>
   </si>
 </sst>
 </file>
@@ -198,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +268,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6969"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1FA66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,25 +291,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -253,6 +320,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFE1FA66"/>
       <color rgb="FFFF6969"/>
     </mruColors>
   </colors>
@@ -553,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,16 +664,16 @@
       <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -646,16 +714,16 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -696,16 +764,16 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -746,16 +814,16 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -796,16 +864,16 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4">
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -846,16 +914,16 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -896,16 +964,16 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -946,16 +1014,16 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -996,16 +1064,16 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1046,16 +1114,16 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="4">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1096,16 +1164,16 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="4">
-        <v>1</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1146,16 +1214,16 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="4">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4">
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1196,16 +1264,16 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1246,16 +1314,16 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" s="4">
-        <v>1</v>
-      </c>
-      <c r="N14" s="4">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4">
-        <v>1</v>
-      </c>
-      <c r="P14" s="4">
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1296,16 +1364,16 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" s="4">
-        <v>1</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1346,16 +1414,16 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" s="4">
-        <v>1</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4">
-        <v>1</v>
-      </c>
-      <c r="P16" s="4">
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1396,16 +1464,16 @@
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1446,16 +1514,16 @@
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1496,16 +1564,16 @@
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>1</v>
-      </c>
-      <c r="P19" s="4">
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1546,16 +1614,16 @@
       <c r="L20">
         <v>1</v>
       </c>
-      <c r="M20" s="4">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>1</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1596,16 +1664,16 @@
       <c r="L21">
         <v>1</v>
       </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>1</v>
-      </c>
-      <c r="O21" s="4">
-        <v>1</v>
-      </c>
-      <c r="P21" s="4">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1646,16 +1714,16 @@
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="M22" s="4">
-        <v>1</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <v>1</v>
-      </c>
-      <c r="P22" s="4">
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1696,16 +1764,16 @@
       <c r="L23">
         <v>1</v>
       </c>
-      <c r="M23" s="4">
-        <v>1</v>
-      </c>
-      <c r="N23" s="4">
-        <v>1</v>
-      </c>
-      <c r="O23" s="4">
-        <v>0</v>
-      </c>
-      <c r="P23" s="4">
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1746,16 +1814,16 @@
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="M24" s="4">
-        <v>1</v>
-      </c>
-      <c r="N24" s="4">
-        <v>1</v>
-      </c>
-      <c r="O24" s="4">
-        <v>1</v>
-      </c>
-      <c r="P24" s="4">
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1796,16 +1864,16 @@
       <c r="L25">
         <v>1</v>
       </c>
-      <c r="M25" s="4">
-        <v>1</v>
-      </c>
-      <c r="N25" s="4">
-        <v>1</v>
-      </c>
-      <c r="O25" s="4">
-        <v>0</v>
-      </c>
-      <c r="P25" s="4">
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1846,16 +1914,16 @@
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="M26" s="4">
-        <v>1</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0</v>
-      </c>
-      <c r="O26" s="4">
-        <v>1</v>
-      </c>
-      <c r="P26" s="4">
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1896,16 +1964,16 @@
       <c r="L27">
         <v>1</v>
       </c>
-      <c r="M27" s="4">
-        <v>0</v>
-      </c>
-      <c r="N27" s="4">
-        <v>1</v>
-      </c>
-      <c r="O27" s="4">
-        <v>1</v>
-      </c>
-      <c r="P27" s="4">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1946,16 +2014,16 @@
       <c r="L28">
         <v>1</v>
       </c>
-      <c r="M28" s="4">
-        <v>0</v>
-      </c>
-      <c r="N28" s="4">
-        <v>0</v>
-      </c>
-      <c r="O28" s="4">
-        <v>1</v>
-      </c>
-      <c r="P28" s="4">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1996,801 +2064,1051 @@
       <c r="L29">
         <v>1</v>
       </c>
-      <c r="M29" s="4">
-        <v>0</v>
-      </c>
-      <c r="N29" s="4">
-        <v>1</v>
-      </c>
-      <c r="O29" s="4">
-        <v>0</v>
-      </c>
-      <c r="P29" s="4">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
-      </c>
-      <c r="L30" s="4">
-        <v>1</v>
-      </c>
-      <c r="M30" s="4">
-        <v>1</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0</v>
-      </c>
-      <c r="P30" s="4">
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="7">
-        <v>0</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7">
-        <v>0</v>
-      </c>
-      <c r="K31" s="7">
-        <v>0</v>
-      </c>
-      <c r="L31" s="7">
-        <v>1</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1</v>
-      </c>
-      <c r="O31" s="7">
-        <v>1</v>
-      </c>
-      <c r="P31" s="7">
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5">
+        <v>1</v>
+      </c>
+      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+      <c r="O31" s="5">
+        <v>1</v>
+      </c>
+      <c r="P31" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="7">
-        <v>0</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7">
-        <v>0</v>
-      </c>
-      <c r="K32" s="7">
-        <v>1</v>
-      </c>
-      <c r="L32" s="7">
-        <v>1</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-      <c r="P32" s="7">
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>1</v>
+      </c>
+      <c r="L32" s="5">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="7">
-        <v>0</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7">
-        <v>0</v>
-      </c>
-      <c r="E33" s="7">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7">
-        <v>0</v>
-      </c>
-      <c r="K33" s="7">
-        <v>1</v>
-      </c>
-      <c r="L33" s="7">
-        <v>1</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7">
-        <v>0</v>
-      </c>
-      <c r="P33" s="7">
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0</v>
+      </c>
+      <c r="P33" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="7">
-        <v>0</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7">
-        <v>0</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0</v>
-      </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7">
-        <v>0</v>
-      </c>
-      <c r="K34" s="7">
-        <v>1</v>
-      </c>
-      <c r="L34" s="7">
-        <v>1</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7">
-        <v>1</v>
-      </c>
-      <c r="P34" s="7">
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>1</v>
+      </c>
+      <c r="L34" s="5">
+        <v>1</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0</v>
+      </c>
+      <c r="O34" s="5">
+        <v>1</v>
+      </c>
+      <c r="P34" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="7">
-        <v>0</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7">
-        <v>0</v>
-      </c>
-      <c r="K35" s="7">
-        <v>1</v>
-      </c>
-      <c r="L35" s="7">
-        <v>1</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0</v>
-      </c>
-      <c r="N35" s="7">
-        <v>1</v>
-      </c>
-      <c r="O35" s="7">
-        <v>0</v>
-      </c>
-      <c r="P35" s="7">
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <v>1</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>1</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0</v>
+      </c>
+      <c r="P35" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="7">
-        <v>0</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7">
-        <v>0</v>
-      </c>
-      <c r="E36" s="7">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7">
-        <v>0</v>
-      </c>
-      <c r="K36" s="7">
-        <v>1</v>
-      </c>
-      <c r="L36" s="7">
-        <v>1</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>1</v>
-      </c>
-      <c r="O36" s="7">
-        <v>1</v>
-      </c>
-      <c r="P36" s="7">
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5">
+        <v>1</v>
+      </c>
+      <c r="O36" s="5">
+        <v>1</v>
+      </c>
+      <c r="P36" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="7">
-        <v>0</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7">
-        <v>0</v>
-      </c>
-      <c r="E37" s="7">
-        <v>0</v>
-      </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7">
-        <v>0</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7">
-        <v>0</v>
-      </c>
-      <c r="K37" s="7">
-        <v>1</v>
-      </c>
-      <c r="L37" s="7">
-        <v>1</v>
-      </c>
-      <c r="M37" s="7">
-        <v>1</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7">
-        <v>1</v>
-      </c>
-      <c r="P37" s="7">
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1</v>
+      </c>
+      <c r="M37" s="5">
+        <v>1</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
+        <v>1</v>
+      </c>
+      <c r="P37" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="7">
-        <v>0</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7">
-        <v>0</v>
-      </c>
-      <c r="K38" s="7">
-        <v>1</v>
-      </c>
-      <c r="L38" s="7">
-        <v>1</v>
-      </c>
-      <c r="M38" s="7">
-        <v>1</v>
-      </c>
-      <c r="N38" s="7">
-        <v>1</v>
-      </c>
-      <c r="O38" s="7">
-        <v>0</v>
-      </c>
-      <c r="P38" s="7">
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5">
+        <v>1</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1</v>
+      </c>
+      <c r="M38" s="5">
+        <v>1</v>
+      </c>
+      <c r="N38" s="5">
+        <v>1</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0</v>
+      </c>
+      <c r="P38" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="7">
-        <v>0</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0</v>
-      </c>
-      <c r="E39" s="7">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>0</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="7">
-        <v>0</v>
-      </c>
-      <c r="K39" s="7">
-        <v>1</v>
-      </c>
-      <c r="L39" s="7">
-        <v>1</v>
-      </c>
-      <c r="M39" s="7">
-        <v>1</v>
-      </c>
-      <c r="N39" s="7">
-        <v>1</v>
-      </c>
-      <c r="O39" s="7">
-        <v>1</v>
-      </c>
-      <c r="P39" s="7">
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1</v>
+      </c>
+      <c r="M39" s="5">
+        <v>1</v>
+      </c>
+      <c r="N39" s="5">
+        <v>1</v>
+      </c>
+      <c r="O39" s="5">
+        <v>1</v>
+      </c>
+      <c r="P39" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="7">
-        <v>0</v>
-      </c>
-      <c r="C40" s="7">
-        <v>0</v>
-      </c>
-      <c r="D40" s="7">
-        <v>0</v>
-      </c>
-      <c r="E40" s="7">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7">
-        <v>0</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7">
-        <v>0</v>
-      </c>
-      <c r="K40" s="7">
-        <v>1</v>
-      </c>
-      <c r="L40" s="7">
-        <v>1</v>
-      </c>
-      <c r="M40" s="7">
-        <v>1</v>
-      </c>
-      <c r="N40" s="7">
-        <v>1</v>
-      </c>
-      <c r="O40" s="7">
-        <v>0</v>
-      </c>
-      <c r="P40" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>1</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+      <c r="M40" s="5">
+        <v>1</v>
+      </c>
+      <c r="N40" s="5">
+        <v>1</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0</v>
+      </c>
+      <c r="P40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="7">
-        <v>0</v>
-      </c>
-      <c r="C41" s="7">
-        <v>0</v>
-      </c>
-      <c r="D41" s="7">
-        <v>0</v>
-      </c>
-      <c r="E41" s="7">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7">
-        <v>0</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7">
-        <v>0</v>
-      </c>
-      <c r="K41" s="7">
-        <v>1</v>
-      </c>
-      <c r="L41" s="7">
-        <v>1</v>
-      </c>
-      <c r="M41" s="7">
-        <v>1</v>
-      </c>
-      <c r="N41" s="7">
-        <v>1</v>
-      </c>
-      <c r="O41" s="7">
-        <v>1</v>
-      </c>
-      <c r="P41" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5">
+        <v>1</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1</v>
+      </c>
+      <c r="M41" s="5">
+        <v>1</v>
+      </c>
+      <c r="N41" s="5">
+        <v>1</v>
+      </c>
+      <c r="O41" s="5">
+        <v>1</v>
+      </c>
+      <c r="P41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7">
+        <v>1</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7">
+        <v>3000</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <v>1</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
+      <c r="A46" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7">
+        <v>4000</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7">
+        <v>1</v>
+      </c>
+      <c r="K46" s="7">
+        <v>1</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7">
+        <v>6000</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48" s="7">
+        <v>1</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A49" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7">
+        <v>7000</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1</v>
+      </c>
+      <c r="J49" s="7">
+        <v>1</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>8000</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1</v>
+      </c>
+      <c r="J50" s="7">
+        <v>1</v>
+      </c>
+      <c r="K50" s="7">
+        <v>1</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>9000</v>
+      </c>
+      <c r="H51" s="7">
+        <v>1</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>1</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H52" s="7">
+        <v>1</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
+      <c r="K52" s="7">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Laba2/Table.xlsx
+++ b/Laba2/Table.xlsx
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="7">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="7">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="7">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="7">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -3095,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="7">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
